--- a/trunk/成品/R1/卫生信息数据元目录/卫生信息数据元目录校对记录.xlsx
+++ b/trunk/成品/R1/卫生信息数据元目录/卫生信息数据元目录校对记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="348">
   <si>
     <t>Ballot Comment Submission</t>
   </si>
@@ -3339,6 +3339,16 @@
   </si>
   <si>
     <t>Health data element dictionary—Part 17: Health management</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DE02.01.033.00</t>
+  </si>
+  <si>
+    <t>DE04.10.117.00</t>
+  </si>
+  <si>
+    <t>无此数据元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3879,6 +3889,16 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3889,16 +3909,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4495,8 +4505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4564,7 +4574,7 @@
       <c r="C3" t="s">
         <v>282</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="45" t="s">
         <v>283</v>
       </c>
       <c r="E3">
@@ -4581,7 +4591,7 @@
       <c r="C4" t="s">
         <v>286</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="45" t="s">
         <v>287</v>
       </c>
       <c r="E4">
@@ -4598,7 +4608,7 @@
       <c r="C5" t="s">
         <v>290</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="45" t="s">
         <v>291</v>
       </c>
       <c r="E5">
@@ -4615,7 +4625,7 @@
       <c r="C6" t="s">
         <v>294</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="45" t="s">
         <v>295</v>
       </c>
       <c r="E6">
@@ -4632,7 +4642,7 @@
       <c r="C7" t="s">
         <v>298</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="45" t="s">
         <v>299</v>
       </c>
       <c r="E7">
@@ -4649,7 +4659,7 @@
       <c r="C8" t="s">
         <v>302</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="45" t="s">
         <v>303</v>
       </c>
       <c r="E8">
@@ -4666,7 +4676,7 @@
       <c r="C9" t="s">
         <v>306</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="45" t="s">
         <v>307</v>
       </c>
       <c r="E9">
@@ -4683,7 +4693,7 @@
       <c r="C10" t="s">
         <v>310</v>
       </c>
-      <c r="D10" s="49" t="s">
+      <c r="D10" s="45" t="s">
         <v>311</v>
       </c>
       <c r="E10">
@@ -4700,7 +4710,7 @@
       <c r="C11" t="s">
         <v>314</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="45" t="s">
         <v>315</v>
       </c>
       <c r="E11">
@@ -4717,7 +4727,7 @@
       <c r="C12" t="s">
         <v>318</v>
       </c>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="45" t="s">
         <v>319</v>
       </c>
       <c r="E12">
@@ -4734,7 +4744,7 @@
       <c r="C13" t="s">
         <v>322</v>
       </c>
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="45" t="s">
         <v>323</v>
       </c>
       <c r="E13">
@@ -4751,7 +4761,7 @@
       <c r="C14" t="s">
         <v>326</v>
       </c>
-      <c r="D14" s="49" t="s">
+      <c r="D14" s="45" t="s">
         <v>327</v>
       </c>
       <c r="E14">
@@ -4768,7 +4778,7 @@
       <c r="C15" t="s">
         <v>330</v>
       </c>
-      <c r="D15" s="49" t="s">
+      <c r="D15" s="45" t="s">
         <v>331</v>
       </c>
       <c r="E15">
@@ -4785,7 +4795,7 @@
       <c r="C16" t="s">
         <v>334</v>
       </c>
-      <c r="D16" s="49" t="s">
+      <c r="D16" s="45" t="s">
         <v>335</v>
       </c>
       <c r="E16">
@@ -4802,7 +4812,7 @@
       <c r="C17" t="s">
         <v>338</v>
       </c>
-      <c r="D17" s="49" t="s">
+      <c r="D17" s="45" t="s">
         <v>339</v>
       </c>
       <c r="E17">
@@ -4819,7 +4829,7 @@
       <c r="C18" t="s">
         <v>342</v>
       </c>
-      <c r="D18" s="49" t="s">
+      <c r="D18" s="45" t="s">
         <v>343</v>
       </c>
       <c r="E18">
@@ -4836,19 +4846,19 @@
       </c>
     </row>
     <row r="28" spans="2:6" ht="18.75">
-      <c r="F28" s="50"/>
+      <c r="F28" s="46"/>
     </row>
     <row r="29" spans="2:6" ht="18.75">
-      <c r="F29" s="50"/>
+      <c r="F29" s="46"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="F30" s="51"/>
+      <c r="F30" s="47"/>
     </row>
     <row r="31" spans="2:6" ht="18.75">
-      <c r="F31" s="52"/>
+      <c r="F31" s="48"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="F32" s="51"/>
+      <c r="F32" s="47"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4858,10 +4868,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V304"/>
+  <dimension ref="A1:V306"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C294" sqref="C294"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="F145" sqref="F145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4886,23 +4896,23 @@
   <sheetData>
     <row r="1" spans="1:22" ht="17.25" thickTop="1" thickBot="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="47" t="s">
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
@@ -8216,26 +8226,18 @@
       <c r="R130" s="41"/>
       <c r="S130" s="41"/>
     </row>
-    <row r="131" spans="1:19" s="44" customFormat="1" ht="25.5">
+    <row r="131" spans="1:19" s="44" customFormat="1" ht="14.25">
       <c r="A131" s="33"/>
-      <c r="B131" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C131" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="D131" s="34" t="s">
-        <v>227</v>
-      </c>
+      <c r="B131" s="34"/>
+      <c r="C131" s="34"/>
+      <c r="D131" s="34"/>
       <c r="E131" s="35" t="s">
-        <v>228</v>
+        <v>345</v>
       </c>
       <c r="F131" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="G131" s="35" t="s">
-        <v>230</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="G131" s="36"/>
       <c r="H131" s="37"/>
       <c r="I131" s="38"/>
       <c r="J131" s="39"/>
@@ -8251,7 +8253,9 @@
     </row>
     <row r="132" spans="1:19" s="44" customFormat="1" ht="25.5">
       <c r="A132" s="33"/>
-      <c r="B132" s="34"/>
+      <c r="B132" s="34" t="s">
+        <v>18</v>
+      </c>
       <c r="C132" s="34" t="s">
         <v>226</v>
       </c>
@@ -8259,13 +8263,13 @@
         <v>227</v>
       </c>
       <c r="E132" s="35" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F132" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="G132" s="36" t="s">
-        <v>215</v>
+        <v>229</v>
+      </c>
+      <c r="G132" s="35" t="s">
+        <v>230</v>
       </c>
       <c r="H132" s="37"/>
       <c r="I132" s="38"/>
@@ -8290,7 +8294,7 @@
         <v>227</v>
       </c>
       <c r="E133" s="35" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F133" s="36" t="s">
         <v>214</v>
@@ -8311,16 +8315,20 @@
       <c r="R133" s="41"/>
       <c r="S133" s="41"/>
     </row>
-    <row r="134" spans="1:19" s="44" customFormat="1" ht="14.25">
+    <row r="134" spans="1:19" s="44" customFormat="1" ht="25.5">
       <c r="A134" s="33"/>
       <c r="B134" s="34"/>
-      <c r="C134" s="34"/>
-      <c r="D134" s="34"/>
+      <c r="C134" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="D134" s="34" t="s">
+        <v>227</v>
+      </c>
       <c r="E134" s="35" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F134" s="36" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="G134" s="36" t="s">
         <v>215</v>
@@ -8344,10 +8352,10 @@
       <c r="C135" s="34"/>
       <c r="D135" s="34"/>
       <c r="E135" s="35" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F135" s="36" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="G135" s="36" t="s">
         <v>215</v>
@@ -8371,7 +8379,7 @@
       <c r="C136" s="34"/>
       <c r="D136" s="34"/>
       <c r="E136" s="35" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F136" s="36" t="s">
         <v>214</v>
@@ -8398,7 +8406,7 @@
       <c r="C137" s="34"/>
       <c r="D137" s="34"/>
       <c r="E137" s="35" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F137" s="36" t="s">
         <v>214</v>
@@ -8425,7 +8433,7 @@
       <c r="C138" s="34"/>
       <c r="D138" s="34"/>
       <c r="E138" s="35" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F138" s="36" t="s">
         <v>214</v>
@@ -8446,23 +8454,19 @@
       <c r="R138" s="41"/>
       <c r="S138" s="41"/>
     </row>
-    <row r="139" spans="1:19" s="44" customFormat="1" ht="25.5">
+    <row r="139" spans="1:19" s="44" customFormat="1" ht="14.25">
       <c r="A139" s="33"/>
       <c r="B139" s="34"/>
-      <c r="C139" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="D139" s="34" t="s">
-        <v>192</v>
-      </c>
+      <c r="C139" s="34"/>
+      <c r="D139" s="34"/>
       <c r="E139" s="35" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F139" s="36" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="G139" s="36" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="H139" s="37"/>
       <c r="I139" s="38"/>
@@ -8477,18 +8481,24 @@
       <c r="R139" s="41"/>
       <c r="S139" s="41"/>
     </row>
-    <row r="140" spans="1:19" s="44" customFormat="1" ht="14.25">
+    <row r="140" spans="1:19" s="44" customFormat="1" ht="25.5">
       <c r="A140" s="33"/>
       <c r="B140" s="34"/>
-      <c r="C140" s="34"/>
-      <c r="D140" s="34"/>
+      <c r="C140" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="D140" s="34" t="s">
+        <v>192</v>
+      </c>
       <c r="E140" s="35" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F140" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="G140" s="35"/>
+        <v>240</v>
+      </c>
+      <c r="G140" s="36" t="s">
+        <v>241</v>
+      </c>
       <c r="H140" s="37"/>
       <c r="I140" s="38"/>
       <c r="J140" s="39"/>
@@ -8502,17 +8512,13 @@
       <c r="R140" s="41"/>
       <c r="S140" s="41"/>
     </row>
-    <row r="141" spans="1:19" s="44" customFormat="1" ht="25.5">
+    <row r="141" spans="1:19" s="44" customFormat="1" ht="14.25">
       <c r="A141" s="33"/>
       <c r="B141" s="34"/>
-      <c r="C141" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="D141" s="34" t="s">
-        <v>244</v>
-      </c>
+      <c r="C141" s="34"/>
+      <c r="D141" s="34"/>
       <c r="E141" s="35" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F141" s="36" t="s">
         <v>214</v>
@@ -8531,20 +8537,22 @@
       <c r="R141" s="41"/>
       <c r="S141" s="41"/>
     </row>
-    <row r="142" spans="1:19" s="44" customFormat="1" ht="24">
+    <row r="142" spans="1:19" s="44" customFormat="1" ht="25.5">
       <c r="A142" s="33"/>
       <c r="B142" s="34"/>
-      <c r="C142" s="34"/>
-      <c r="D142" s="34"/>
+      <c r="C142" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="D142" s="34" t="s">
+        <v>244</v>
+      </c>
       <c r="E142" s="35" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F142" s="36" t="s">
-        <v>247</v>
-      </c>
-      <c r="G142" s="36" t="s">
-        <v>248</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="G142" s="35"/>
       <c r="H142" s="37"/>
       <c r="I142" s="38"/>
       <c r="J142" s="39"/>
@@ -8558,22 +8566,20 @@
       <c r="R142" s="41"/>
       <c r="S142" s="41"/>
     </row>
-    <row r="143" spans="1:19" s="44" customFormat="1" ht="25.5">
+    <row r="143" spans="1:19" s="44" customFormat="1" ht="24">
       <c r="A143" s="33"/>
       <c r="B143" s="34"/>
-      <c r="C143" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="D143" s="34" t="s">
-        <v>91</v>
-      </c>
+      <c r="C143" s="34"/>
+      <c r="D143" s="34"/>
       <c r="E143" s="35" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F143" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="G143" s="35"/>
+        <v>247</v>
+      </c>
+      <c r="G143" s="36" t="s">
+        <v>248</v>
+      </c>
       <c r="H143" s="37"/>
       <c r="I143" s="38"/>
       <c r="J143" s="39"/>
@@ -8591,20 +8597,18 @@
       <c r="A144" s="33"/>
       <c r="B144" s="34"/>
       <c r="C144" s="34" t="s">
-        <v>183</v>
+        <v>90</v>
       </c>
       <c r="D144" s="34" t="s">
-        <v>184</v>
+        <v>91</v>
       </c>
       <c r="E144" s="35" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F144" s="36" t="s">
-        <v>251</v>
-      </c>
-      <c r="G144" s="36" t="s">
-        <v>252</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="G144" s="35"/>
       <c r="H144" s="37"/>
       <c r="I144" s="38"/>
       <c r="J144" s="39"/>
@@ -8618,17 +8622,17 @@
       <c r="R144" s="41"/>
       <c r="S144" s="41"/>
     </row>
-    <row r="145" spans="1:19" s="44" customFormat="1" ht="25.5">
+    <row r="145" spans="1:19" s="44" customFormat="1" ht="14.25">
       <c r="A145" s="33"/>
       <c r="B145" s="34"/>
-      <c r="C145" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="D145" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="E145" s="35"/>
-      <c r="F145" s="36"/>
+      <c r="C145" s="34"/>
+      <c r="D145" s="34"/>
+      <c r="E145" s="35" t="s">
+        <v>346</v>
+      </c>
+      <c r="F145" s="36" t="s">
+        <v>347</v>
+      </c>
       <c r="G145" s="35"/>
       <c r="H145" s="37"/>
       <c r="I145" s="38"/>
@@ -8647,19 +8651,19 @@
       <c r="A146" s="33"/>
       <c r="B146" s="34"/>
       <c r="C146" s="34" t="s">
-        <v>253</v>
+        <v>183</v>
       </c>
       <c r="D146" s="34" t="s">
-        <v>254</v>
+        <v>184</v>
       </c>
       <c r="E146" s="35" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F146" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="G146" s="35" t="s">
-        <v>257</v>
+        <v>251</v>
+      </c>
+      <c r="G146" s="36" t="s">
+        <v>252</v>
       </c>
       <c r="H146" s="37"/>
       <c r="I146" s="38"/>
@@ -8674,20 +8678,18 @@
       <c r="R146" s="41"/>
       <c r="S146" s="41"/>
     </row>
-    <row r="147" spans="1:19" s="44" customFormat="1" ht="14.25">
+    <row r="147" spans="1:19" s="44" customFormat="1" ht="25.5">
       <c r="A147" s="33"/>
       <c r="B147" s="34"/>
-      <c r="C147" s="34"/>
-      <c r="D147" s="34"/>
-      <c r="E147" s="35" t="s">
-        <v>258</v>
-      </c>
-      <c r="F147" s="36" t="s">
-        <v>259</v>
-      </c>
-      <c r="G147" s="36" t="s">
-        <v>260</v>
-      </c>
+      <c r="C147" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="D147" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="E147" s="35"/>
+      <c r="F147" s="36"/>
+      <c r="G147" s="35"/>
       <c r="H147" s="37"/>
       <c r="I147" s="38"/>
       <c r="J147" s="39"/>
@@ -8705,18 +8707,20 @@
       <c r="A148" s="33"/>
       <c r="B148" s="34"/>
       <c r="C148" s="34" t="s">
-        <v>58</v>
+        <v>253</v>
       </c>
       <c r="D148" s="34" t="s">
-        <v>59</v>
+        <v>254</v>
       </c>
       <c r="E148" s="35" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F148" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="G148" s="35"/>
+        <v>256</v>
+      </c>
+      <c r="G148" s="35" t="s">
+        <v>257</v>
+      </c>
       <c r="H148" s="37"/>
       <c r="I148" s="38"/>
       <c r="J148" s="39"/>
@@ -8730,18 +8734,20 @@
       <c r="R148" s="41"/>
       <c r="S148" s="41"/>
     </row>
-    <row r="149" spans="1:19" s="44" customFormat="1" ht="36">
+    <row r="149" spans="1:19" s="44" customFormat="1" ht="14.25">
       <c r="A149" s="33"/>
       <c r="B149" s="34"/>
       <c r="C149" s="34"/>
       <c r="D149" s="34"/>
       <c r="E149" s="35" t="s">
-        <v>86</v>
+        <v>258</v>
       </c>
       <c r="F149" s="36" t="s">
-        <v>262</v>
-      </c>
-      <c r="G149" s="35"/>
+        <v>259</v>
+      </c>
+      <c r="G149" s="36" t="s">
+        <v>260</v>
+      </c>
       <c r="H149" s="37"/>
       <c r="I149" s="38"/>
       <c r="J149" s="39"/>
@@ -8755,16 +8761,20 @@
       <c r="R149" s="41"/>
       <c r="S149" s="41"/>
     </row>
-    <row r="150" spans="1:19" s="44" customFormat="1" ht="36">
+    <row r="150" spans="1:19" s="44" customFormat="1" ht="25.5">
       <c r="A150" s="33"/>
       <c r="B150" s="34"/>
-      <c r="C150" s="34"/>
-      <c r="D150" s="34"/>
+      <c r="C150" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D150" s="34" t="s">
+        <v>59</v>
+      </c>
       <c r="E150" s="35" t="s">
-        <v>84</v>
+        <v>261</v>
       </c>
       <c r="F150" s="36" t="s">
-        <v>262</v>
+        <v>214</v>
       </c>
       <c r="G150" s="35"/>
       <c r="H150" s="37"/>
@@ -8780,20 +8790,18 @@
       <c r="R150" s="41"/>
       <c r="S150" s="41"/>
     </row>
-    <row r="151" spans="1:19" s="44" customFormat="1" ht="14.25">
+    <row r="151" spans="1:19" s="44" customFormat="1" ht="36">
       <c r="A151" s="33"/>
       <c r="B151" s="34"/>
       <c r="C151" s="34"/>
       <c r="D151" s="34"/>
       <c r="E151" s="35" t="s">
-        <v>263</v>
+        <v>86</v>
       </c>
       <c r="F151" s="36" t="s">
-        <v>264</v>
-      </c>
-      <c r="G151" s="36" t="s">
-        <v>265</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="G151" s="35"/>
       <c r="H151" s="37"/>
       <c r="I151" s="38"/>
       <c r="J151" s="39"/>
@@ -8807,20 +8815,16 @@
       <c r="R151" s="41"/>
       <c r="S151" s="41"/>
     </row>
-    <row r="152" spans="1:19" s="44" customFormat="1" ht="25.5">
+    <row r="152" spans="1:19" s="44" customFormat="1" ht="36">
       <c r="A152" s="33"/>
       <c r="B152" s="34"/>
-      <c r="C152" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="D152" s="34" t="s">
-        <v>118</v>
-      </c>
+      <c r="C152" s="34"/>
+      <c r="D152" s="34"/>
       <c r="E152" s="35" t="s">
-        <v>266</v>
+        <v>84</v>
       </c>
       <c r="F152" s="36" t="s">
-        <v>214</v>
+        <v>262</v>
       </c>
       <c r="G152" s="35"/>
       <c r="H152" s="37"/>
@@ -8842,12 +8846,14 @@
       <c r="C153" s="34"/>
       <c r="D153" s="34"/>
       <c r="E153" s="35" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F153" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="G153" s="35"/>
+        <v>264</v>
+      </c>
+      <c r="G153" s="36" t="s">
+        <v>265</v>
+      </c>
       <c r="H153" s="37"/>
       <c r="I153" s="38"/>
       <c r="J153" s="39"/>
@@ -8865,13 +8871,17 @@
       <c r="A154" s="33"/>
       <c r="B154" s="34"/>
       <c r="C154" s="34" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="D154" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="E154" s="35"/>
-      <c r="F154" s="36"/>
+        <v>118</v>
+      </c>
+      <c r="E154" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="F154" s="36" t="s">
+        <v>214</v>
+      </c>
       <c r="G154" s="35"/>
       <c r="H154" s="37"/>
       <c r="I154" s="38"/>
@@ -8886,47 +8896,55 @@
       <c r="R154" s="41"/>
       <c r="S154" s="41"/>
     </row>
-    <row r="155" spans="1:19" s="32" customFormat="1" ht="14.25">
-      <c r="A155" s="21"/>
-      <c r="B155" s="22"/>
-      <c r="C155" s="22"/>
-      <c r="D155" s="22"/>
-      <c r="E155" s="23"/>
-      <c r="F155" s="24"/>
-      <c r="G155" s="23"/>
-      <c r="H155" s="25"/>
-      <c r="I155" s="26"/>
-      <c r="J155" s="27"/>
-      <c r="K155" s="28"/>
-      <c r="L155" s="29"/>
-      <c r="M155" s="29"/>
-      <c r="N155" s="30"/>
-      <c r="O155" s="27"/>
-      <c r="P155" s="27"/>
-      <c r="Q155" s="28"/>
-      <c r="R155" s="29"/>
-      <c r="S155" s="29"/>
-    </row>
-    <row r="156" spans="1:19" s="32" customFormat="1" ht="14.25">
-      <c r="A156" s="21"/>
-      <c r="B156" s="22"/>
-      <c r="C156" s="22"/>
-      <c r="D156" s="22"/>
-      <c r="E156" s="23"/>
-      <c r="F156" s="24"/>
-      <c r="G156" s="23"/>
-      <c r="H156" s="25"/>
-      <c r="I156" s="26"/>
-      <c r="J156" s="27"/>
-      <c r="K156" s="28"/>
-      <c r="L156" s="29"/>
-      <c r="M156" s="29"/>
-      <c r="N156" s="30"/>
-      <c r="O156" s="27"/>
-      <c r="P156" s="27"/>
-      <c r="Q156" s="28"/>
-      <c r="R156" s="29"/>
-      <c r="S156" s="29"/>
+    <row r="155" spans="1:19" s="44" customFormat="1" ht="14.25">
+      <c r="A155" s="33"/>
+      <c r="B155" s="34"/>
+      <c r="C155" s="34"/>
+      <c r="D155" s="34"/>
+      <c r="E155" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="F155" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="G155" s="35"/>
+      <c r="H155" s="37"/>
+      <c r="I155" s="38"/>
+      <c r="J155" s="39"/>
+      <c r="K155" s="40"/>
+      <c r="L155" s="41"/>
+      <c r="M155" s="41"/>
+      <c r="N155" s="43"/>
+      <c r="O155" s="39"/>
+      <c r="P155" s="39"/>
+      <c r="Q155" s="40"/>
+      <c r="R155" s="41"/>
+      <c r="S155" s="41"/>
+    </row>
+    <row r="156" spans="1:19" s="44" customFormat="1" ht="25.5">
+      <c r="A156" s="33"/>
+      <c r="B156" s="34"/>
+      <c r="C156" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D156" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E156" s="35"/>
+      <c r="F156" s="36"/>
+      <c r="G156" s="35"/>
+      <c r="H156" s="37"/>
+      <c r="I156" s="38"/>
+      <c r="J156" s="39"/>
+      <c r="K156" s="40"/>
+      <c r="L156" s="41"/>
+      <c r="M156" s="41"/>
+      <c r="N156" s="43"/>
+      <c r="O156" s="39"/>
+      <c r="P156" s="39"/>
+      <c r="Q156" s="40"/>
+      <c r="R156" s="41"/>
+      <c r="S156" s="41"/>
     </row>
     <row r="157" spans="1:19" s="32" customFormat="1" ht="14.25">
       <c r="A157" s="21"/>
@@ -12035,6 +12053,48 @@
       <c r="Q304" s="28"/>
       <c r="R304" s="29"/>
       <c r="S304" s="29"/>
+    </row>
+    <row r="305" spans="1:19" s="32" customFormat="1" ht="14.25">
+      <c r="A305" s="21"/>
+      <c r="B305" s="22"/>
+      <c r="C305" s="22"/>
+      <c r="D305" s="22"/>
+      <c r="E305" s="23"/>
+      <c r="F305" s="24"/>
+      <c r="G305" s="23"/>
+      <c r="H305" s="25"/>
+      <c r="I305" s="26"/>
+      <c r="J305" s="27"/>
+      <c r="K305" s="28"/>
+      <c r="L305" s="29"/>
+      <c r="M305" s="29"/>
+      <c r="N305" s="30"/>
+      <c r="O305" s="27"/>
+      <c r="P305" s="27"/>
+      <c r="Q305" s="28"/>
+      <c r="R305" s="29"/>
+      <c r="S305" s="29"/>
+    </row>
+    <row r="306" spans="1:19" s="32" customFormat="1" ht="14.25">
+      <c r="A306" s="21"/>
+      <c r="B306" s="22"/>
+      <c r="C306" s="22"/>
+      <c r="D306" s="22"/>
+      <c r="E306" s="23"/>
+      <c r="F306" s="24"/>
+      <c r="G306" s="23"/>
+      <c r="H306" s="25"/>
+      <c r="I306" s="26"/>
+      <c r="J306" s="27"/>
+      <c r="K306" s="28"/>
+      <c r="L306" s="29"/>
+      <c r="M306" s="29"/>
+      <c r="N306" s="30"/>
+      <c r="O306" s="27"/>
+      <c r="P306" s="27"/>
+      <c r="Q306" s="28"/>
+      <c r="R306" s="29"/>
+      <c r="S306" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="3">
